--- a/Summary for Prediction results.xlsx
+++ b/Summary for Prediction results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spamidi\Documents\Sushma_SP500Prediction_Capstone_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7340ED-753A-445A-B014-22767BD0F554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E280F3-0C11-4DBF-BFB1-3B8DA2E81AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33697" yWindow="-2723" windowWidth="19394" windowHeight="10396" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,8 +69,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="0.0000"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -218,33 +218,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -252,6 +237,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -269,6 +263,3266 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Model Summary'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean Squared Error (MSE)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Model Summary'!$B$4:$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Linear regression</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Decision trees</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Random forests</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>k-nearest neighbors</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Support vector machines</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Deep neural networks (MLPRegressor)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>XGBoost</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Stochastic Gradient Boosting (SGB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Model Summary'!$C$4:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>45847.480221784703</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10089.3904821656</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1753.44718706612</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5065.9256022929903</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57396.441822250199</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37647.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51670.342673542</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2004.913</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EC7D-4331-A23A-713CFB05A35B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1347683103"/>
+        <c:axId val="1285654047"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1347683103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1285654047"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1285654047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1347683103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Model Summary'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean Absolute Error (MAE)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Model Summary'!$B$4:$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Linear regression</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Decision trees</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Random forests</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>k-nearest neighbors</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Support vector machines</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Deep neural networks (MLPRegressor)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>XGBoost</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Stochastic Gradient Boosting (SGB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Model Summary'!$D$4:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>134.502379439061</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.494203821656001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.517331210191099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.929885350318401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>133.45394634064701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90.85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>136.147034042261</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5A74-4362-B972-CDC311B87203}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1731687231"/>
+        <c:axId val="1295595567"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1731687231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1295595567"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1295595567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1731687231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Model Summary'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R-squared</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Model Summary'!$B$4:$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Linear regression</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Decision trees</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Random forests</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>k-nearest neighbors</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Support vector machines</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Deep neural networks (MLPRegressor)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>XGBoost</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Stochastic Gradient Boosting (SGB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Model Summary'!$E$4:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.95550275440254195</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99020774786221999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99829819283965804</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99508326881623099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94429391635417903</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94985137859426105</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F644-4F6A-A473-F089A2886C63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1729874911"/>
+        <c:axId val="1289564671"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1729874911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1289564671"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1289564671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1729874911"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>554830</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>102393</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>488155</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>169068</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AB37312-EC6B-B5CA-5902-5F069435A289}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>678655</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>269080</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>173831</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{608C99B0-0A34-C575-C6A7-4414458F771A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>592931</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>121443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>526256</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>7143</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{227FC01F-3FEB-4DD1-6CA6-9027B68A8629}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1490663</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Oval 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FF9C3F8-15EB-A3D6-6525-CD25BBD14ECD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2100263" y="3519488"/>
+          <a:ext cx="957262" cy="481012"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Oval 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DEA305C-7D86-4FFD-B5C3-959A9E973503}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4495800" y="3505201"/>
+          <a:ext cx="476250" cy="481012"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1509712</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Oval 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924CBB92-8388-46FC-B376-0ACF3B58DF22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6148387" y="3395663"/>
+          <a:ext cx="1647825" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238133</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19044</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>104783</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>119056</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Oval 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EED670ED-25D3-4531-83DB-081C8EB45B28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9248783" y="3486144"/>
+          <a:ext cx="476250" cy="481012"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>881063</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>166688</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Oval 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4348500A-A227-4B39-B0A6-C3B9572B68B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1490663" y="5424488"/>
+          <a:ext cx="1647825" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1571625</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Oval 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{194E29FB-2BD5-4E2E-8501-921D8B6B180C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4543425" y="5319713"/>
+          <a:ext cx="476250" cy="423862"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -536,8 +3790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,16 +3804,16 @@
   <sheetData>
     <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -567,13 +3821,13 @@
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="7">
         <v>45847.480221784703</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="7">
         <v>134.502379439061</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="3">
         <v>0.95550275440254195</v>
       </c>
     </row>
@@ -581,13 +3835,13 @@
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="7">
         <v>10089.3904821656</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="7">
         <v>30.494203821656001</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="3">
         <v>0.99020774786221999</v>
       </c>
     </row>
@@ -595,13 +3849,13 @@
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="7">
         <v>1753.44718706612</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="7">
         <v>19.517331210191099</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="3">
         <v>0.99829819283965804</v>
       </c>
     </row>
@@ -609,13 +3863,13 @@
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="7">
         <v>5065.9256022929903</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="7">
         <v>31.929885350318401</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="3">
         <v>0.99508326881623099</v>
       </c>
     </row>
@@ -623,13 +3877,13 @@
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="7">
         <v>57396.441822250199</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="7">
         <v>133.45394634064701</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="3">
         <v>0.94429391635417903</v>
       </c>
     </row>
@@ -637,41 +3891,41 @@
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="7">
         <v>37647.75</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="7">
         <v>90.85</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="3">
         <v>0.96</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="8">
         <v>51670.342673542</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="8">
         <v>136.147034042261</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="3">
         <v>0.94985137859426105</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="9">
         <v>2004.913</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="9">
         <v>22.53</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="4">
         <v>0.998</v>
       </c>
     </row>
@@ -679,5 +3933,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>